--- a/Lab1/Test_result/测试结果数据.xlsx
+++ b/Lab1/Test_result/测试结果数据.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16233\Desktop\Study\CloudComputing\CloudComputingLabs_M78\Lab1\Test_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC6930-F240-4CB7-9136-7BAC340FCEA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591F874-CB96-4556-8CBD-B8A4B34F2590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7490" xr2:uid="{3F31D569-3E0C-42FA-9DAC-8FF9043CFA19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F31D569-3E0C-42FA-9DAC-8FF9043CFA19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2995,28 +3001,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03FD11E-D222-4321-92E3-7BFED834CE88}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>2.0270999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>2.7366999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>3.3664000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>3.7961900000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>3.5646900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>3.73088</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>3.74336</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>3.6123599999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>3.84239</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>3.7868900000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>3.7272099999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3209,83 +3215,83 @@
         <v>3.64547</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3307,7 +3313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>8.6205000000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>0.14704900000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>0.27954800000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>5.2424020000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>5.2779769999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>7.1409580000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>4.662515</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>9.0140940000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>18.156652000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>37.960875999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>81.327389999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
     </row>
   </sheetData>
